--- a/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -12,14 +12,14 @@
     <sheet name="加班明细表" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">上线明细!$A$1:$O$602</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">上线明细!$A$1:$O$603</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -970,6 +970,189 @@
   </si>
   <si>
     <t>黄金金</t>
+  </si>
+  <si>
+    <t>悸动(百兴商贸城店)</t>
+  </si>
+  <si>
+    <t>王志洪</t>
+  </si>
+  <si>
+    <t>临沂</t>
+  </si>
+  <si>
+    <t>悸动(临沂苍山宝庆生活广场店)</t>
+  </si>
+  <si>
+    <t>薛东青</t>
+  </si>
+  <si>
+    <t>悸动(杭州江干华润万家店)</t>
+  </si>
+  <si>
+    <t>吴琪岗</t>
+  </si>
+  <si>
+    <t>南昌</t>
+  </si>
+  <si>
+    <t>悸动(江西服装学院店)</t>
+  </si>
+  <si>
+    <t>倪华俊</t>
+  </si>
+  <si>
+    <t>宿迁</t>
+  </si>
+  <si>
+    <t>悸动(宿迁沭阳城市广场店)</t>
+  </si>
+  <si>
+    <t>贾盈盈</t>
+  </si>
+  <si>
+    <t>宜兴</t>
+  </si>
+  <si>
+    <t>悸动(宜兴凌霞北路店)</t>
+  </si>
+  <si>
+    <t>张颖</t>
+  </si>
+  <si>
+    <t>悸动(嘉兴西塘店)</t>
+  </si>
+  <si>
+    <t>罗华中</t>
+  </si>
+  <si>
+    <t>悸动(南京月桥路店)</t>
+  </si>
+  <si>
+    <t>张华</t>
+  </si>
+  <si>
+    <t>悸动(盐城金地商业中心店)</t>
+  </si>
+  <si>
+    <t>顾静</t>
+  </si>
+  <si>
+    <t>福建</t>
+  </si>
+  <si>
+    <t>悸动(邵武五四路店)</t>
+  </si>
+  <si>
+    <t>悸动(昆山童泾路店)</t>
+  </si>
+  <si>
+    <t>袁玲玲</t>
+  </si>
+  <si>
+    <t>悸动(常州兴镇路店)</t>
+  </si>
+  <si>
+    <t>余洋</t>
+  </si>
+  <si>
+    <t>悸动(青浦青湖路店)</t>
+  </si>
+  <si>
+    <t>刘诗羽</t>
+  </si>
+  <si>
+    <t>常德</t>
+  </si>
+  <si>
+    <t>悸动(常德人民路店)</t>
+  </si>
+  <si>
+    <t>刘冠男</t>
+  </si>
+  <si>
+    <t>海南</t>
+  </si>
+  <si>
+    <t>悸动(海口经济学院店)</t>
+  </si>
+  <si>
+    <t>吴健</t>
+  </si>
+  <si>
+    <t>悸动(马鞍山朝辉花园店)</t>
+  </si>
+  <si>
+    <t>汪和才</t>
+  </si>
+  <si>
+    <t>悸动(南京玉兰路店)</t>
+  </si>
+  <si>
+    <t>卞元金</t>
+  </si>
+  <si>
+    <t>悸动(六安飞霞路店)</t>
+  </si>
+  <si>
+    <t>徐云</t>
+  </si>
+  <si>
+    <t>陈克爽</t>
+  </si>
+  <si>
+    <t>悸动(宜兴凤凰街店)</t>
+  </si>
+  <si>
+    <t>钱敏</t>
+  </si>
+  <si>
+    <t>悸动(马鞍山和县历阳中路店)</t>
+  </si>
+  <si>
+    <t>金国平</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>捞王锅物料理(宁波宏泰店)</t>
+  </si>
+  <si>
+    <t>廖店长</t>
+  </si>
+  <si>
+    <t>0574-81879950</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>RAMENGOSSOU</t>
+  </si>
+  <si>
+    <t>陈君</t>
+  </si>
+  <si>
+    <t>经理</t>
+  </si>
+  <si>
+    <t>串兵衛日式串焼き、串揚げ</t>
+  </si>
+  <si>
+    <t>大贯日式牛扒</t>
+  </si>
+  <si>
+    <t>麺処勲</t>
+  </si>
+  <si>
+    <t>张店长</t>
+  </si>
+  <si>
+    <t>头盔一鰻三吃</t>
+  </si>
+  <si>
+    <t>春树拉面(广州店)</t>
   </si>
   <si>
     <t>姓名</t>
@@ -995,11 +1178,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1062,14 +1245,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1083,79 +1335,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1170,9 +1351,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1186,22 +1388,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1211,22 +1397,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1287,7 +1468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,7 +1486,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,37 +1546,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,7 +1570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,7 +1588,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,25 +1606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,37 +1624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,6 +1971,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1828,17 +2048,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1851,51 +2067,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1904,16 +2085,16 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1922,131 +2103,131 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2143,13 +2324,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2370,6 +2569,11 @@
     <cellStyle name="常规 15" xfId="54"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2625,12 +2829,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
@@ -2649,440 +2852,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="74" t="s">
+      <c r="N2" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="39"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49">
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="77" t="e">
+      <c r="J3" s="82"/>
+      <c r="K3" s="83" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="84">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="79">
+      <c r="M3" s="85">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="80" t="e">
+      <c r="N3" s="86" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55">
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="56">
+      <c r="G4" s="62"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="77" t="e">
+      <c r="J4" s="87"/>
+      <c r="K4" s="83" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="78">
+      <c r="L4" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="79">
+      <c r="M4" s="85">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="80" t="e">
+      <c r="N4" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55">
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="56">
+      <c r="G5" s="62"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="77" t="e">
+      <c r="J5" s="87"/>
+      <c r="K5" s="83" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="78">
+      <c r="L5" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="79">
+      <c r="M5" s="85">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="80" t="e">
+      <c r="N5" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55">
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="56">
+      <c r="G6" s="62"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="77" t="e">
+      <c r="J6" s="87"/>
+      <c r="K6" s="83" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="78">
+      <c r="L6" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="79">
+      <c r="M6" s="85">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="80" t="e">
+      <c r="N6" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="56">
+      <c r="G7" s="62"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="77" t="e">
+      <c r="J7" s="87"/>
+      <c r="K7" s="83" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="78">
+      <c r="L7" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="79">
+      <c r="M7" s="85">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="80" t="e">
+      <c r="N7" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55">
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="56">
+      <c r="G8" s="62"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="77" t="e">
+      <c r="J8" s="87"/>
+      <c r="K8" s="83" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="78">
+      <c r="L8" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="79">
+      <c r="M8" s="85">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="80" t="e">
+      <c r="N8" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55">
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="56">
+      <c r="G9" s="62"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="77" t="e">
+      <c r="J9" s="87"/>
+      <c r="K9" s="83" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="78">
+      <c r="L9" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="79">
+      <c r="M9" s="85">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="80" t="e">
+      <c r="N9" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="57" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60">
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="61">
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="82"/>
-      <c r="K10" s="83" t="e">
+      <c r="J10" s="88"/>
+      <c r="K10" s="89" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="84">
+      <c r="L10" s="90">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="85">
+      <c r="M10" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="86" t="e">
+      <c r="N10" s="92" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="72">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="72">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="72">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="87" t="e">
+      <c r="K11" s="93" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="67">
+      <c r="L11" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="67">
+      <c r="M11" s="73">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="88" t="e">
+      <c r="N11" s="94" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3096,14 +3299,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O602"/>
+  <dimension ref="A1:O603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M104" sqref="M104:M116"/>
+      <selection pane="bottomLeft" activeCell="N148" sqref="N148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7101,7 +7304,7 @@
       <c r="M95" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N95" s="89" t="s">
+      <c r="N95" s="95" t="s">
         <v>269</v>
       </c>
       <c r="O95" s="12" t="s">
@@ -7560,53 +7763,25 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="18"/>
-      <c r="B106" s="32">
-        <v>43008</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F106" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="G106" s="34">
-        <v>76098216</v>
-      </c>
-      <c r="H106" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="I106" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J106" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K106" s="12">
-        <v>17721436606</v>
-      </c>
-      <c r="L106" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="M106" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="N106" s="34">
-        <v>13651600757</v>
-      </c>
-      <c r="O106" s="12" t="s">
-        <v>173</v>
-      </c>
+      <c r="B106" s="32"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="13"/>
+      <c r="O106" s="12"/>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="18"/>
       <c r="B107" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>40</v>
@@ -7617,14 +7792,14 @@
       <c r="E107" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F107" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="G107" s="34">
-        <v>76099177</v>
-      </c>
-      <c r="H107" s="34" t="s">
-        <v>294</v>
+      <c r="F107" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="G107" s="13">
+        <v>76098216</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>292</v>
       </c>
       <c r="I107" s="12" t="s">
         <v>43</v>
@@ -7635,14 +7810,14 @@
       <c r="K107" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L107" s="34" t="s">
-        <v>295</v>
+      <c r="L107" s="13" t="s">
+        <v>293</v>
       </c>
       <c r="M107" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N107" s="34">
-        <v>13063963982</v>
+      <c r="N107" s="13">
+        <v>13651600757</v>
       </c>
       <c r="O107" s="12" t="s">
         <v>173</v>
@@ -7651,7 +7826,7 @@
     <row r="108" spans="1:15">
       <c r="A108" s="18"/>
       <c r="B108" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>40</v>
@@ -7662,14 +7837,14 @@
       <c r="E108" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F108" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="G108" s="34">
-        <v>76081817</v>
-      </c>
-      <c r="H108" s="34" t="s">
-        <v>297</v>
+      <c r="F108" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G108" s="13">
+        <v>76099177</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>294</v>
       </c>
       <c r="I108" s="12" t="s">
         <v>43</v>
@@ -7680,14 +7855,14 @@
       <c r="K108" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L108" s="34" t="s">
-        <v>298</v>
+      <c r="L108" s="13" t="s">
+        <v>295</v>
       </c>
       <c r="M108" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N108" s="34">
-        <v>15028311353</v>
+      <c r="N108" s="13">
+        <v>13063963982</v>
       </c>
       <c r="O108" s="12" t="s">
         <v>173</v>
@@ -7696,7 +7871,7 @@
     <row r="109" spans="1:15">
       <c r="A109" s="18"/>
       <c r="B109" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>40</v>
@@ -7707,14 +7882,14 @@
       <c r="E109" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F109" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="G109" s="34">
-        <v>76086302</v>
-      </c>
-      <c r="H109" s="34" t="s">
-        <v>300</v>
+      <c r="F109" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="G109" s="13">
+        <v>76081817</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>297</v>
       </c>
       <c r="I109" s="12" t="s">
         <v>43</v>
@@ -7725,14 +7900,14 @@
       <c r="K109" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L109" s="34" t="s">
-        <v>301</v>
+      <c r="L109" s="13" t="s">
+        <v>298</v>
       </c>
       <c r="M109" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N109" s="34">
-        <v>18912580233</v>
+      <c r="N109" s="13">
+        <v>15028311353</v>
       </c>
       <c r="O109" s="12" t="s">
         <v>173</v>
@@ -7741,7 +7916,7 @@
     <row r="110" spans="1:15">
       <c r="A110" s="18"/>
       <c r="B110" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C110" s="12" t="s">
         <v>40</v>
@@ -7752,14 +7927,14 @@
       <c r="E110" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F110" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G110" s="34">
-        <v>76081952</v>
-      </c>
-      <c r="H110" s="34" t="s">
-        <v>302</v>
+      <c r="F110" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="G110" s="13">
+        <v>76086302</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>300</v>
       </c>
       <c r="I110" s="12" t="s">
         <v>43</v>
@@ -7770,14 +7945,14 @@
       <c r="K110" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L110" s="34" t="s">
-        <v>303</v>
+      <c r="L110" s="13" t="s">
+        <v>301</v>
       </c>
       <c r="M110" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N110" s="34">
-        <v>13956267302</v>
+      <c r="N110" s="13">
+        <v>18912580233</v>
       </c>
       <c r="O110" s="12" t="s">
         <v>173</v>
@@ -7786,7 +7961,7 @@
     <row r="111" spans="1:15">
       <c r="A111" s="18"/>
       <c r="B111" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>40</v>
@@ -7797,14 +7972,14 @@
       <c r="E111" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F111" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="G111" s="34">
-        <v>76081887</v>
-      </c>
-      <c r="H111" s="34" t="s">
-        <v>304</v>
+      <c r="F111" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G111" s="13">
+        <v>76081952</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>302</v>
       </c>
       <c r="I111" s="12" t="s">
         <v>43</v>
@@ -7815,14 +7990,14 @@
       <c r="K111" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L111" s="34" t="s">
-        <v>305</v>
+      <c r="L111" s="13" t="s">
+        <v>303</v>
       </c>
       <c r="M111" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N111" s="34">
-        <v>18914973930</v>
+      <c r="N111" s="13">
+        <v>13956267302</v>
       </c>
       <c r="O111" s="12" t="s">
         <v>173</v>
@@ -7831,7 +8006,7 @@
     <row r="112" spans="1:15">
       <c r="A112" s="18"/>
       <c r="B112" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>40</v>
@@ -7842,14 +8017,14 @@
       <c r="E112" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F112" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G112" s="34">
-        <v>76099251</v>
-      </c>
-      <c r="H112" s="34" t="s">
-        <v>306</v>
+      <c r="F112" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G112" s="13">
+        <v>76081887</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>304</v>
       </c>
       <c r="I112" s="12" t="s">
         <v>43</v>
@@ -7860,14 +8035,14 @@
       <c r="K112" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L112" s="34" t="s">
-        <v>307</v>
+      <c r="L112" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="M112" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N112" s="34">
-        <v>13505731962</v>
+      <c r="N112" s="13">
+        <v>18914973930</v>
       </c>
       <c r="O112" s="12" t="s">
         <v>173</v>
@@ -7876,7 +8051,7 @@
     <row r="113" spans="1:15">
       <c r="A113" s="18"/>
       <c r="B113" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>40</v>
@@ -7887,14 +8062,14 @@
       <c r="E113" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F113" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="G113" s="34">
-        <v>76099177</v>
-      </c>
-      <c r="H113" s="34" t="s">
-        <v>308</v>
+      <c r="F113" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G113" s="13">
+        <v>76099251</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="I113" s="12" t="s">
         <v>43</v>
@@ -7905,14 +8080,14 @@
       <c r="K113" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L113" s="34" t="s">
-        <v>295</v>
+      <c r="L113" s="13" t="s">
+        <v>307</v>
       </c>
       <c r="M113" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N113" s="34">
-        <v>13063963982</v>
+      <c r="N113" s="13">
+        <v>13505731962</v>
       </c>
       <c r="O113" s="12" t="s">
         <v>173</v>
@@ -7921,7 +8096,7 @@
     <row r="114" spans="1:15">
       <c r="A114" s="18"/>
       <c r="B114" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>40</v>
@@ -7932,14 +8107,14 @@
       <c r="E114" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F114" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="G114" s="34">
-        <v>76099287</v>
-      </c>
-      <c r="H114" s="34" t="s">
-        <v>310</v>
+      <c r="F114" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G114" s="13">
+        <v>76099177</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="I114" s="12" t="s">
         <v>43</v>
@@ -7950,14 +8125,14 @@
       <c r="K114" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L114" s="34" t="s">
-        <v>311</v>
+      <c r="L114" s="13" t="s">
+        <v>295</v>
       </c>
       <c r="M114" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N114" s="34">
-        <v>18305053621</v>
+      <c r="N114" s="13">
+        <v>13063963982</v>
       </c>
       <c r="O114" s="12" t="s">
         <v>173</v>
@@ -7966,7 +8141,7 @@
     <row r="115" spans="1:15">
       <c r="A115" s="18"/>
       <c r="B115" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>40</v>
@@ -7977,14 +8152,14 @@
       <c r="E115" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F115" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G115" s="34">
-        <v>76099303</v>
-      </c>
-      <c r="H115" s="34" t="s">
-        <v>312</v>
+      <c r="F115" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="G115" s="13">
+        <v>76099287</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="I115" s="12" t="s">
         <v>43</v>
@@ -7995,14 +8170,14 @@
       <c r="K115" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L115" s="34" t="s">
-        <v>313</v>
+      <c r="L115" s="13" t="s">
+        <v>311</v>
       </c>
       <c r="M115" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N115" s="34">
-        <v>13813828360</v>
+      <c r="N115" s="13">
+        <v>18305053621</v>
       </c>
       <c r="O115" s="12" t="s">
         <v>173</v>
@@ -8011,7 +8186,7 @@
     <row r="116" spans="1:15">
       <c r="A116" s="18"/>
       <c r="B116" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>40</v>
@@ -8022,14 +8197,14 @@
       <c r="E116" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F116" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="G116" s="34">
-        <v>76099331</v>
-      </c>
-      <c r="H116" s="34" t="s">
-        <v>315</v>
+      <c r="F116" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G116" s="13">
+        <v>76099303</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="I116" s="12" t="s">
         <v>43</v>
@@ -8040,14 +8215,14 @@
       <c r="K116" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L116" s="34" t="s">
-        <v>316</v>
+      <c r="L116" s="13" t="s">
+        <v>313</v>
       </c>
       <c r="M116" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N116" s="34">
-        <v>13989337698</v>
+      <c r="N116" s="13">
+        <v>13813828360</v>
       </c>
       <c r="O116" s="12" t="s">
         <v>173</v>
@@ -8055,8 +8230,48 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="18"/>
-      <c r="N117" s="26"/>
-      <c r="O117" s="6"/>
+      <c r="B117" s="32">
+        <v>43009</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G117" s="13">
+        <v>76099331</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J117" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K117" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L117" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="M117" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N117" s="13">
+        <v>13989337698</v>
+      </c>
+      <c r="O117" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="18"/>
@@ -8065,146 +8280,1267 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="18"/>
-      <c r="N119" s="26"/>
-      <c r="O119" s="6"/>
+      <c r="B119" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F119" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G119" s="34">
+        <v>76099533</v>
+      </c>
+      <c r="H119" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J119" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K119" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L119" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="M119" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N119" s="34">
+        <v>13915803903</v>
+      </c>
+      <c r="O119" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="18"/>
-      <c r="N120" s="26"/>
-      <c r="O120" s="6"/>
+      <c r="B120" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F120" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="G120" s="34">
+        <v>76099993</v>
+      </c>
+      <c r="H120" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="I120" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J120" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K120" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L120" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="M120" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N120" s="34">
+        <v>18151835354</v>
+      </c>
+      <c r="O120" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="18"/>
-      <c r="N121" s="26"/>
-      <c r="O121" s="6"/>
+      <c r="B121" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F121" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G121" s="34">
+        <v>76099120</v>
+      </c>
+      <c r="H121" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J121" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K121" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L121" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="M121" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N121" s="34">
+        <v>13957398098</v>
+      </c>
+      <c r="O121" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="18"/>
-      <c r="N122" s="26"/>
-      <c r="O122" s="6"/>
+      <c r="B122" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F122" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="G122" s="34">
+        <v>76095913</v>
+      </c>
+      <c r="H122" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="I122" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J122" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K122" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L122" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="M122" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N122" s="34">
+        <v>18961469596</v>
+      </c>
+      <c r="O122" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="18"/>
-      <c r="N123" s="26"/>
-      <c r="O123" s="6"/>
+      <c r="B123" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F123" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="G123" s="34">
+        <v>76100015</v>
+      </c>
+      <c r="H123" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J123" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K123" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L123" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="M123" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N123" s="38">
+        <v>15151111620</v>
+      </c>
+      <c r="O123" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="18"/>
-      <c r="N124" s="26"/>
-      <c r="O124" s="6"/>
+      <c r="B124" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F124" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="G124" s="34">
+        <v>76073807</v>
+      </c>
+      <c r="H124" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="I124" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J124" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K124" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L124" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="M124" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N124" s="40">
+        <v>13914295927</v>
+      </c>
+      <c r="O124" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="18"/>
-      <c r="N125" s="26"/>
-      <c r="O125" s="6"/>
+      <c r="B125" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F125" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G125" s="34">
+        <v>76091036</v>
+      </c>
+      <c r="H125" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J125" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K125" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L125" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="M125" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N125" s="34">
+        <v>18358350429</v>
+      </c>
+      <c r="O125" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="18"/>
-      <c r="N126" s="26"/>
-      <c r="O126" s="6"/>
+      <c r="B126" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F126" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G126" s="34">
+        <v>76081863</v>
+      </c>
+      <c r="H126" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J126" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K126" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L126" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="M126" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N126" s="34">
+        <v>18994122660</v>
+      </c>
+      <c r="O126" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="18"/>
-      <c r="N127" s="26"/>
-      <c r="O127" s="6"/>
+      <c r="B127" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F127" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G127" s="34">
+        <v>76096281</v>
+      </c>
+      <c r="H127" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J127" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K127" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L127" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="M127" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N127" s="34">
+        <v>15251045468</v>
+      </c>
+      <c r="O127" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="18"/>
-      <c r="N128" s="26"/>
-      <c r="O128" s="6"/>
+      <c r="B128" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F128" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="G128" s="34">
+        <v>76095195</v>
+      </c>
+      <c r="H128" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J128" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K128" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L128" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="M128" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N128" s="34">
+        <v>13063963982</v>
+      </c>
+      <c r="O128" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="18"/>
-      <c r="N129" s="26"/>
-      <c r="O129" s="6"/>
+      <c r="B129" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F129" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="G129" s="34">
+        <v>76101680</v>
+      </c>
+      <c r="H129" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J129" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K129" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L129" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="M129" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N129" s="34">
+        <v>15950910285</v>
+      </c>
+      <c r="O129" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="18"/>
-      <c r="N130" s="26"/>
-      <c r="O130" s="6"/>
+      <c r="B130" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F130" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G130" s="34">
+        <v>76100735</v>
+      </c>
+      <c r="H130" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J130" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K130" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L130" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="M130" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N130" s="34">
+        <v>13706123603</v>
+      </c>
+      <c r="O130" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="18"/>
-      <c r="N131" s="26"/>
-      <c r="O131" s="6"/>
+      <c r="B131" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F131" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G131" s="34">
+        <v>76100711</v>
+      </c>
+      <c r="H131" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J131" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K131" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L131" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="M131" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N131" s="34">
+        <v>15214368904</v>
+      </c>
+      <c r="O131" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="18"/>
-      <c r="N132" s="26"/>
-      <c r="O132" s="6"/>
+      <c r="B132" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F132" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="G132" s="34">
+        <v>76092139</v>
+      </c>
+      <c r="H132" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J132" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K132" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L132" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="M132" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N132" s="34">
+        <v>13818847991</v>
+      </c>
+      <c r="O132" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="18"/>
-      <c r="N133" s="26"/>
-      <c r="O133" s="6"/>
+      <c r="B133" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F133" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="G133" s="34">
+        <v>76081822</v>
+      </c>
+      <c r="H133" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J133" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K133" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L133" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="M133" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N133" s="34">
+        <v>17384600589</v>
+      </c>
+      <c r="O133" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="18"/>
-      <c r="N134" s="26"/>
-      <c r="O134" s="6"/>
+      <c r="B134" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F134" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G134" s="34">
+        <v>76095897</v>
+      </c>
+      <c r="H134" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J134" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K134" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L134" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="M134" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N134" s="34">
+        <v>13817611168</v>
+      </c>
+      <c r="O134" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="18"/>
-      <c r="N135" s="26"/>
-      <c r="O135" s="6"/>
+      <c r="B135" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F135" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G135" s="34">
+        <v>76092652</v>
+      </c>
+      <c r="H135" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J135" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K135" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L135" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="M135" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N135" s="34">
+        <v>13951017550</v>
+      </c>
+      <c r="O135" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="18"/>
-      <c r="N136" s="26"/>
-      <c r="O136" s="6"/>
+      <c r="B136" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F136" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G136" s="34">
+        <v>76098159</v>
+      </c>
+      <c r="H136" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="I136" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J136" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K136" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L136" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="M136" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N136" s="34">
+        <v>13637277756</v>
+      </c>
+      <c r="O136" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="18"/>
-      <c r="N137" s="26"/>
-      <c r="O137" s="6"/>
+      <c r="B137" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F137" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G137" s="34">
+        <v>76081952</v>
+      </c>
+      <c r="H137" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J137" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K137" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L137" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="M137" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N137" s="34">
+        <v>13956267302</v>
+      </c>
+      <c r="O137" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="18"/>
-      <c r="N138" s="26"/>
-      <c r="O138" s="6"/>
+      <c r="B138" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F138" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="G138" s="41">
+        <v>76081955</v>
+      </c>
+      <c r="H138" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="I138" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J138" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K138" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L138" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="M138" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N138" s="41">
+        <v>15121058158</v>
+      </c>
+      <c r="O138" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="18"/>
-      <c r="N139" s="26"/>
-      <c r="O139" s="6"/>
+      <c r="B139" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F139" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G139" s="42">
+        <v>76098850</v>
+      </c>
+      <c r="H139" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="I139" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J139" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K139" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L139" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="M139" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N139" s="42">
+        <v>13918487556</v>
+      </c>
+      <c r="O139" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="18"/>
-      <c r="N140" s="26"/>
-      <c r="O140" s="6"/>
+      <c r="B140" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G140" s="6">
+        <v>76101237</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="I140" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J140" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K140" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="M140" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N140" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="O140" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="18"/>
-      <c r="N141" s="26"/>
-      <c r="O141" s="6"/>
+      <c r="B141" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G141" s="6">
+        <v>76098583</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J141" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K141" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L141" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="M141" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="N141" s="26">
+        <v>13859010255</v>
+      </c>
+      <c r="O141" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="18"/>
-      <c r="N142" s="26"/>
-      <c r="O142" s="6"/>
+      <c r="B142" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G142" s="6">
+        <v>76098585</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J142" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K142" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="M142" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="N142" s="26">
+        <v>13859010255</v>
+      </c>
+      <c r="O142" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="18"/>
-      <c r="N143" s="26"/>
-      <c r="O143" s="6"/>
+      <c r="B143" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G143" s="6">
+        <v>76098586</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J143" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K143" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="M143" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="N143" s="26">
+        <v>13859010255</v>
+      </c>
+      <c r="O143" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="18"/>
-      <c r="N144" s="26"/>
-      <c r="O144" s="6"/>
+      <c r="B144" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G144" s="6">
+        <v>76098588</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J144" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K144" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L144" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="M144" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N144" s="26">
+        <v>13160801863</v>
+      </c>
+      <c r="O144" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="18"/>
-      <c r="N145" s="26"/>
-      <c r="O145" s="6"/>
+      <c r="B145" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G145" s="6">
+        <v>76098589</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J145" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K145" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="M145" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N145" s="26">
+        <v>13160801863</v>
+      </c>
+      <c r="O145" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="18"/>
-      <c r="N146" s="26"/>
-      <c r="O146" s="6"/>
+      <c r="B146" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G146" s="6">
+        <v>76098590</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="I146" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J146" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K146" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L146" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="M146" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N146" s="26">
+        <v>13160801863</v>
+      </c>
+      <c r="O146" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="18"/>
+      <c r="B147" s="32"/>
       <c r="N147" s="26"/>
       <c r="O147" s="6"/>
     </row>
@@ -9118,8 +10454,10 @@
       <c r="N329" s="26"/>
       <c r="O329" s="6"/>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:15">
       <c r="A330" s="18"/>
+      <c r="N330" s="26"/>
+      <c r="O330" s="6"/>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="18"/>
@@ -9937,13 +11275,16 @@
     <row r="602" spans="1:1">
       <c r="A602" s="18"/>
     </row>
+    <row r="603" spans="1:1">
+      <c r="A603" s="18"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C106:C116 C117:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B118 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B119:B138 B139:B147 B148:B1048576">
+      <formula1>42736</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C118 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C119:C138 C139:C146 C147:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B106:B116 B117:B1048576">
-      <formula1>42736</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9953,7 +11294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -9970,13 +11311,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -9987,7 +11328,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9998,7 +11339,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10009,7 +11350,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:3">

--- a/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -1125,10 +1125,10 @@
     <t>0574-81879950</t>
   </si>
   <si>
+    <t>RAMENGOSSOU</t>
+  </si>
+  <si>
     <t>广州</t>
-  </si>
-  <si>
-    <t>RAMENGOSSOU</t>
   </si>
   <si>
     <t>陈君</t>
@@ -1184,7 +1184,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,8 +1245,64 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1265,34 +1321,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -1300,38 +1328,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1352,45 +1353,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1403,11 +1387,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1468,7 +1463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,13 +1487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,13 +1505,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,103 +1625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1970,6 +1965,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1981,15 +2000,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2009,32 +2019,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2048,13 +2039,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2073,10 +2068,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2085,149 +2080,149 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2324,9 +2319,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2336,20 +2328,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2852,440 +2835,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="79" t="s">
+      <c r="M2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="45"/>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55">
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56">
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83" t="e">
+      <c r="J3" s="78"/>
+      <c r="K3" s="79" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="84">
+      <c r="L3" s="80">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="85">
+      <c r="M3" s="81">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="86" t="e">
+      <c r="N3" s="82" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61">
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="62">
+      <c r="G4" s="58"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="83" t="e">
+      <c r="J4" s="83"/>
+      <c r="K4" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="84">
+      <c r="L4" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="85">
+      <c r="M4" s="81">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="86" t="e">
+      <c r="N4" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61">
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="62">
+      <c r="G5" s="58"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="87"/>
-      <c r="K5" s="83" t="e">
+      <c r="J5" s="83"/>
+      <c r="K5" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="84">
+      <c r="L5" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="85">
+      <c r="M5" s="81">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="86" t="e">
+      <c r="N5" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61">
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="62">
+      <c r="G6" s="58"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="83" t="e">
+      <c r="J6" s="83"/>
+      <c r="K6" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="84">
+      <c r="L6" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="85">
+      <c r="M6" s="81">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="86" t="e">
+      <c r="N6" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61">
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="62">
+      <c r="G7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="83" t="e">
+      <c r="J7" s="83"/>
+      <c r="K7" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="84">
+      <c r="L7" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="85">
+      <c r="M7" s="81">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="86" t="e">
+      <c r="N7" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61">
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="62">
+      <c r="G8" s="58"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="87"/>
-      <c r="K8" s="83" t="e">
+      <c r="J8" s="83"/>
+      <c r="K8" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="84">
+      <c r="L8" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="85">
+      <c r="M8" s="81">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="86" t="e">
+      <c r="N8" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61">
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="62">
+      <c r="G9" s="58"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="87"/>
-      <c r="K9" s="83" t="e">
+      <c r="J9" s="83"/>
+      <c r="K9" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="84">
+      <c r="L9" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="85">
+      <c r="M9" s="81">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="86" t="e">
+      <c r="N9" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="63" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66">
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="67">
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89" t="e">
+      <c r="J10" s="84"/>
+      <c r="K10" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="90">
+      <c r="L10" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="91">
+      <c r="M10" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="92" t="e">
+      <c r="N10" s="88" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="68">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="68">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="68">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="68">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="73">
+      <c r="I11" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="68">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="93" t="e">
+      <c r="K11" s="89" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="73">
+      <c r="L11" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="73">
+      <c r="M11" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="94" t="e">
+      <c r="N11" s="90" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3303,10 +3286,10 @@
   <sheetPr/>
   <dimension ref="A1:O603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N148" sqref="N148"/>
+      <selection pane="bottomLeft" activeCell="E141" sqref="E141:E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6523,13 +6506,13 @@
       <c r="K76" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L76" s="35" t="s">
+      <c r="L76" s="34" t="s">
         <v>226</v>
       </c>
       <c r="M76" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N76" s="35">
+      <c r="N76" s="34">
         <v>18502567464</v>
       </c>
       <c r="O76" s="12" t="s">
@@ -7304,7 +7287,7 @@
       <c r="M95" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N95" s="95" t="s">
+      <c r="N95" s="91" t="s">
         <v>269</v>
       </c>
       <c r="O95" s="12" t="s">
@@ -8292,13 +8275,13 @@
       <c r="E119" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F119" s="34" t="s">
+      <c r="F119" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G119" s="34">
+      <c r="G119" s="13">
         <v>76099533</v>
       </c>
-      <c r="H119" s="34" t="s">
+      <c r="H119" s="13" t="s">
         <v>317</v>
       </c>
       <c r="I119" s="12" t="s">
@@ -8310,13 +8293,13 @@
       <c r="K119" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L119" s="34" t="s">
+      <c r="L119" s="13" t="s">
         <v>318</v>
       </c>
       <c r="M119" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N119" s="34">
+      <c r="N119" s="13">
         <v>13915803903</v>
       </c>
       <c r="O119" s="12" t="s">
@@ -8337,13 +8320,13 @@
       <c r="E120" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F120" s="34" t="s">
+      <c r="F120" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="G120" s="34">
+      <c r="G120" s="13">
         <v>76099993</v>
       </c>
-      <c r="H120" s="34" t="s">
+      <c r="H120" s="13" t="s">
         <v>320</v>
       </c>
       <c r="I120" s="12" t="s">
@@ -8355,13 +8338,13 @@
       <c r="K120" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L120" s="37" t="s">
+      <c r="L120" s="36" t="s">
         <v>321</v>
       </c>
       <c r="M120" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N120" s="34">
+      <c r="N120" s="13">
         <v>18151835354</v>
       </c>
       <c r="O120" s="12" t="s">
@@ -8382,13 +8365,13 @@
       <c r="E121" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F121" s="34" t="s">
+      <c r="F121" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G121" s="34">
+      <c r="G121" s="13">
         <v>76099120</v>
       </c>
-      <c r="H121" s="34" t="s">
+      <c r="H121" s="13" t="s">
         <v>322</v>
       </c>
       <c r="I121" s="12" t="s">
@@ -8400,13 +8383,13 @@
       <c r="K121" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L121" s="34" t="s">
+      <c r="L121" s="13" t="s">
         <v>323</v>
       </c>
       <c r="M121" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N121" s="34">
+      <c r="N121" s="13">
         <v>13957398098</v>
       </c>
       <c r="O121" s="12" t="s">
@@ -8427,13 +8410,13 @@
       <c r="E122" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F122" s="34" t="s">
+      <c r="F122" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="G122" s="34">
+      <c r="G122" s="13">
         <v>76095913</v>
       </c>
-      <c r="H122" s="34" t="s">
+      <c r="H122" s="13" t="s">
         <v>325</v>
       </c>
       <c r="I122" s="12" t="s">
@@ -8445,13 +8428,13 @@
       <c r="K122" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L122" s="34" t="s">
+      <c r="L122" s="13" t="s">
         <v>326</v>
       </c>
       <c r="M122" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N122" s="34">
+      <c r="N122" s="13">
         <v>18961469596</v>
       </c>
       <c r="O122" s="12" t="s">
@@ -8472,13 +8455,13 @@
       <c r="E123" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F123" s="34" t="s">
+      <c r="F123" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="G123" s="34">
+      <c r="G123" s="13">
         <v>76100015</v>
       </c>
-      <c r="H123" s="34" t="s">
+      <c r="H123" s="13" t="s">
         <v>328</v>
       </c>
       <c r="I123" s="12" t="s">
@@ -8490,13 +8473,13 @@
       <c r="K123" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L123" s="34" t="s">
+      <c r="L123" s="13" t="s">
         <v>329</v>
       </c>
       <c r="M123" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N123" s="38">
+      <c r="N123" s="13">
         <v>15151111620</v>
       </c>
       <c r="O123" s="12" t="s">
@@ -8517,13 +8500,13 @@
       <c r="E124" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F124" s="34" t="s">
+      <c r="F124" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="G124" s="34">
+      <c r="G124" s="13">
         <v>76073807</v>
       </c>
-      <c r="H124" s="34" t="s">
+      <c r="H124" s="13" t="s">
         <v>331</v>
       </c>
       <c r="I124" s="12" t="s">
@@ -8535,13 +8518,13 @@
       <c r="K124" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L124" s="39" t="s">
+      <c r="L124" s="37" t="s">
         <v>332</v>
       </c>
       <c r="M124" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N124" s="40">
+      <c r="N124" s="38">
         <v>13914295927</v>
       </c>
       <c r="O124" s="12" t="s">
@@ -8562,13 +8545,13 @@
       <c r="E125" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F125" s="34" t="s">
+      <c r="F125" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G125" s="34">
+      <c r="G125" s="13">
         <v>76091036</v>
       </c>
-      <c r="H125" s="34" t="s">
+      <c r="H125" s="13" t="s">
         <v>333</v>
       </c>
       <c r="I125" s="12" t="s">
@@ -8580,13 +8563,13 @@
       <c r="K125" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L125" s="34" t="s">
+      <c r="L125" s="13" t="s">
         <v>334</v>
       </c>
       <c r="M125" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N125" s="34">
+      <c r="N125" s="13">
         <v>18358350429</v>
       </c>
       <c r="O125" s="12" t="s">
@@ -8607,13 +8590,13 @@
       <c r="E126" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F126" s="34" t="s">
+      <c r="F126" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G126" s="34">
+      <c r="G126" s="13">
         <v>76081863</v>
       </c>
-      <c r="H126" s="34" t="s">
+      <c r="H126" s="13" t="s">
         <v>335</v>
       </c>
       <c r="I126" s="12" t="s">
@@ -8625,13 +8608,13 @@
       <c r="K126" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L126" s="34" t="s">
+      <c r="L126" s="13" t="s">
         <v>336</v>
       </c>
       <c r="M126" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N126" s="34">
+      <c r="N126" s="13">
         <v>18994122660</v>
       </c>
       <c r="O126" s="12" t="s">
@@ -8652,13 +8635,13 @@
       <c r="E127" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F127" s="34" t="s">
+      <c r="F127" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="G127" s="34">
+      <c r="G127" s="13">
         <v>76096281</v>
       </c>
-      <c r="H127" s="34" t="s">
+      <c r="H127" s="13" t="s">
         <v>337</v>
       </c>
       <c r="I127" s="12" t="s">
@@ -8670,13 +8653,13 @@
       <c r="K127" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L127" s="34" t="s">
+      <c r="L127" s="13" t="s">
         <v>338</v>
       </c>
       <c r="M127" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N127" s="34">
+      <c r="N127" s="13">
         <v>15251045468</v>
       </c>
       <c r="O127" s="12" t="s">
@@ -8697,13 +8680,13 @@
       <c r="E128" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F128" s="34" t="s">
+      <c r="F128" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="G128" s="34">
+      <c r="G128" s="13">
         <v>76095195</v>
       </c>
-      <c r="H128" s="34" t="s">
+      <c r="H128" s="13" t="s">
         <v>340</v>
       </c>
       <c r="I128" s="12" t="s">
@@ -8715,13 +8698,13 @@
       <c r="K128" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L128" s="34" t="s">
+      <c r="L128" s="13" t="s">
         <v>295</v>
       </c>
       <c r="M128" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N128" s="34">
+      <c r="N128" s="13">
         <v>13063963982</v>
       </c>
       <c r="O128" s="12" t="s">
@@ -8742,13 +8725,13 @@
       <c r="E129" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F129" s="34" t="s">
+      <c r="F129" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G129" s="34">
+      <c r="G129" s="13">
         <v>76101680</v>
       </c>
-      <c r="H129" s="34" t="s">
+      <c r="H129" s="13" t="s">
         <v>341</v>
       </c>
       <c r="I129" s="12" t="s">
@@ -8760,13 +8743,13 @@
       <c r="K129" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L129" s="34" t="s">
+      <c r="L129" s="13" t="s">
         <v>342</v>
       </c>
       <c r="M129" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N129" s="34">
+      <c r="N129" s="13">
         <v>15950910285</v>
       </c>
       <c r="O129" s="12" t="s">
@@ -8787,13 +8770,13 @@
       <c r="E130" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F130" s="34" t="s">
+      <c r="F130" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G130" s="34">
+      <c r="G130" s="13">
         <v>76100735</v>
       </c>
-      <c r="H130" s="34" t="s">
+      <c r="H130" s="13" t="s">
         <v>343</v>
       </c>
       <c r="I130" s="12" t="s">
@@ -8805,13 +8788,13 @@
       <c r="K130" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L130" s="34" t="s">
+      <c r="L130" s="13" t="s">
         <v>344</v>
       </c>
       <c r="M130" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N130" s="34">
+      <c r="N130" s="13">
         <v>13706123603</v>
       </c>
       <c r="O130" s="12" t="s">
@@ -8832,13 +8815,13 @@
       <c r="E131" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F131" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G131" s="34">
+      <c r="F131" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G131" s="13">
         <v>76100711</v>
       </c>
-      <c r="H131" s="34" t="s">
+      <c r="H131" s="13" t="s">
         <v>345</v>
       </c>
       <c r="I131" s="12" t="s">
@@ -8850,13 +8833,13 @@
       <c r="K131" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L131" s="34" t="s">
+      <c r="L131" s="13" t="s">
         <v>346</v>
       </c>
       <c r="M131" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N131" s="34">
+      <c r="N131" s="13">
         <v>15214368904</v>
       </c>
       <c r="O131" s="12" t="s">
@@ -8877,13 +8860,13 @@
       <c r="E132" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F132" s="41" t="s">
+      <c r="F132" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="G132" s="34">
+      <c r="G132" s="13">
         <v>76092139</v>
       </c>
-      <c r="H132" s="41" t="s">
+      <c r="H132" s="13" t="s">
         <v>348</v>
       </c>
       <c r="I132" s="12" t="s">
@@ -8895,13 +8878,13 @@
       <c r="K132" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L132" s="34" t="s">
+      <c r="L132" s="13" t="s">
         <v>349</v>
       </c>
       <c r="M132" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N132" s="34">
+      <c r="N132" s="13">
         <v>13818847991</v>
       </c>
       <c r="O132" s="12" t="s">
@@ -8922,13 +8905,13 @@
       <c r="E133" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F133" s="34" t="s">
+      <c r="F133" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="G133" s="34">
+      <c r="G133" s="13">
         <v>76081822</v>
       </c>
-      <c r="H133" s="41" t="s">
+      <c r="H133" s="13" t="s">
         <v>351</v>
       </c>
       <c r="I133" s="12" t="s">
@@ -8940,13 +8923,13 @@
       <c r="K133" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L133" s="34" t="s">
+      <c r="L133" s="13" t="s">
         <v>352</v>
       </c>
       <c r="M133" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N133" s="34">
+      <c r="N133" s="13">
         <v>17384600589</v>
       </c>
       <c r="O133" s="12" t="s">
@@ -8967,13 +8950,13 @@
       <c r="E134" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F134" s="34" t="s">
+      <c r="F134" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G134" s="34">
+      <c r="G134" s="13">
         <v>76095897</v>
       </c>
-      <c r="H134" s="41" t="s">
+      <c r="H134" s="13" t="s">
         <v>353</v>
       </c>
       <c r="I134" s="12" t="s">
@@ -8985,13 +8968,13 @@
       <c r="K134" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L134" s="34" t="s">
+      <c r="L134" s="13" t="s">
         <v>354</v>
       </c>
       <c r="M134" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N134" s="34">
+      <c r="N134" s="13">
         <v>13817611168</v>
       </c>
       <c r="O134" s="12" t="s">
@@ -9012,13 +8995,13 @@
       <c r="E135" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F135" s="34" t="s">
+      <c r="F135" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G135" s="34">
+      <c r="G135" s="13">
         <v>76092652</v>
       </c>
-      <c r="H135" s="41" t="s">
+      <c r="H135" s="13" t="s">
         <v>355</v>
       </c>
       <c r="I135" s="12" t="s">
@@ -9030,13 +9013,13 @@
       <c r="K135" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L135" s="34" t="s">
+      <c r="L135" s="13" t="s">
         <v>356</v>
       </c>
       <c r="M135" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N135" s="34">
+      <c r="N135" s="13">
         <v>13951017550</v>
       </c>
       <c r="O135" s="12" t="s">
@@ -9057,13 +9040,13 @@
       <c r="E136" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F136" s="34" t="s">
+      <c r="F136" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G136" s="34">
+      <c r="G136" s="13">
         <v>76098159</v>
       </c>
-      <c r="H136" s="41" t="s">
+      <c r="H136" s="13" t="s">
         <v>357</v>
       </c>
       <c r="I136" s="12" t="s">
@@ -9075,13 +9058,13 @@
       <c r="K136" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L136" s="34" t="s">
+      <c r="L136" s="13" t="s">
         <v>358</v>
       </c>
       <c r="M136" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N136" s="34">
+      <c r="N136" s="13">
         <v>13637277756</v>
       </c>
       <c r="O136" s="12" t="s">
@@ -9102,13 +9085,13 @@
       <c r="E137" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F137" s="34" t="s">
+      <c r="F137" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G137" s="34">
+      <c r="G137" s="13">
         <v>76081952</v>
       </c>
-      <c r="H137" s="41" t="s">
+      <c r="H137" s="13" t="s">
         <v>302</v>
       </c>
       <c r="I137" s="12" t="s">
@@ -9120,13 +9103,13 @@
       <c r="K137" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L137" s="34" t="s">
+      <c r="L137" s="13" t="s">
         <v>359</v>
       </c>
       <c r="M137" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N137" s="34">
+      <c r="N137" s="13">
         <v>13956267302</v>
       </c>
       <c r="O137" s="12" t="s">
@@ -9147,13 +9130,13 @@
       <c r="E138" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F138" s="41" t="s">
+      <c r="F138" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="G138" s="41">
+      <c r="G138" s="13">
         <v>76081955</v>
       </c>
-      <c r="H138" s="41" t="s">
+      <c r="H138" s="13" t="s">
         <v>360</v>
       </c>
       <c r="I138" s="12" t="s">
@@ -9165,13 +9148,13 @@
       <c r="K138" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L138" s="41" t="s">
+      <c r="L138" s="13" t="s">
         <v>361</v>
       </c>
       <c r="M138" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N138" s="41">
+      <c r="N138" s="13">
         <v>15121058158</v>
       </c>
       <c r="O138" s="12" t="s">
@@ -9192,13 +9175,13 @@
       <c r="E139" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F139" s="42" t="s">
+      <c r="F139" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G139" s="42">
+      <c r="G139" s="13">
         <v>76098850</v>
       </c>
-      <c r="H139" s="42" t="s">
+      <c r="H139" s="13" t="s">
         <v>362</v>
       </c>
       <c r="I139" s="12" t="s">
@@ -9210,13 +9193,13 @@
       <c r="K139" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L139" s="42" t="s">
+      <c r="L139" s="13" t="s">
         <v>363</v>
       </c>
       <c r="M139" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N139" s="42">
+      <c r="N139" s="13">
         <v>13918487556</v>
       </c>
       <c r="O139" s="12" t="s">
@@ -9280,16 +9263,16 @@
         <v>243</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>244</v>
+        <v>368</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G141" s="6">
         <v>76098583</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I141" s="12" t="s">
         <v>43</v>
@@ -9325,10 +9308,10 @@
         <v>243</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>244</v>
+        <v>372</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G142" s="6">
         <v>76098585</v>
@@ -9370,10 +9353,10 @@
         <v>243</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>244</v>
+        <v>373</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G143" s="6">
         <v>76098586</v>
@@ -9415,10 +9398,10 @@
         <v>243</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>244</v>
+        <v>374</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G144" s="6">
         <v>76098588</v>
@@ -9460,10 +9443,10 @@
         <v>243</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>244</v>
+        <v>376</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G145" s="6">
         <v>76098589</v>
@@ -9508,7 +9491,7 @@
         <v>244</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G146" s="6">
         <v>76098590</v>

--- a/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -12,7 +12,7 @@
     <sheet name="加班明细表" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">上线明细!$A$1:$O$603</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">上线明细!$A$1:$O$602</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -1178,11 +1178,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1367,14 +1367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1388,7 +1381,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1463,7 +1463,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,7 +1493,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1493,7 +1523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1505,25 +1547,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,37 +1583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,19 +1601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1613,19 +1619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2068,10 +2068,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2080,16 +2080,16 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2101,10 +2101,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2119,7 +2119,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2134,73 +2134,73 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2208,10 +2208,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
@@ -3284,12 +3284,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O603"/>
+  <dimension ref="A1:O602"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E141" sqref="E141:E145"/>
+      <selection pane="bottomLeft" activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8258,8 +8258,48 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="18"/>
-      <c r="N118" s="26"/>
-      <c r="O118" s="6"/>
+      <c r="B118" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G118" s="13">
+        <v>76099533</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I118" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J118" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K118" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L118" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="M118" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N118" s="13">
+        <v>13915803903</v>
+      </c>
+      <c r="O118" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="18"/>
@@ -8276,13 +8316,13 @@
         <v>52</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>161</v>
+        <v>319</v>
       </c>
       <c r="G119" s="13">
-        <v>76099533</v>
+        <v>76099993</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="I119" s="12" t="s">
         <v>43</v>
@@ -8293,14 +8333,14 @@
       <c r="K119" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L119" s="13" t="s">
-        <v>318</v>
+      <c r="L119" s="36" t="s">
+        <v>321</v>
       </c>
       <c r="M119" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N119" s="13">
-        <v>13915803903</v>
+        <v>18151835354</v>
       </c>
       <c r="O119" s="12" t="s">
         <v>173</v>
@@ -8321,13 +8361,13 @@
         <v>52</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>319</v>
+        <v>67</v>
       </c>
       <c r="G120" s="13">
-        <v>76099993</v>
+        <v>76099120</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I120" s="12" t="s">
         <v>43</v>
@@ -8338,14 +8378,14 @@
       <c r="K120" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L120" s="36" t="s">
-        <v>321</v>
+      <c r="L120" s="13" t="s">
+        <v>323</v>
       </c>
       <c r="M120" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N120" s="13">
-        <v>18151835354</v>
+        <v>13957398098</v>
       </c>
       <c r="O120" s="12" t="s">
         <v>173</v>
@@ -8366,13 +8406,13 @@
         <v>52</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>67</v>
+        <v>324</v>
       </c>
       <c r="G121" s="13">
-        <v>76099120</v>
+        <v>76095913</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I121" s="12" t="s">
         <v>43</v>
@@ -8384,13 +8424,13 @@
         <v>17721436606</v>
       </c>
       <c r="L121" s="13" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M121" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N121" s="13">
-        <v>13957398098</v>
+        <v>18961469596</v>
       </c>
       <c r="O121" s="12" t="s">
         <v>173</v>
@@ -8411,13 +8451,13 @@
         <v>52</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G122" s="13">
-        <v>76095913</v>
+        <v>76100015</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I122" s="12" t="s">
         <v>43</v>
@@ -8429,13 +8469,13 @@
         <v>17721436606</v>
       </c>
       <c r="L122" s="13" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M122" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N122" s="13">
-        <v>18961469596</v>
+        <v>15151111620</v>
       </c>
       <c r="O122" s="12" t="s">
         <v>173</v>
@@ -8456,13 +8496,13 @@
         <v>52</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G123" s="13">
-        <v>76100015</v>
+        <v>76073807</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I123" s="12" t="s">
         <v>43</v>
@@ -8473,14 +8513,14 @@
       <c r="K123" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L123" s="13" t="s">
-        <v>329</v>
+      <c r="L123" s="37" t="s">
+        <v>332</v>
       </c>
       <c r="M123" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N123" s="13">
-        <v>15151111620</v>
+      <c r="N123" s="38">
+        <v>13914295927</v>
       </c>
       <c r="O123" s="12" t="s">
         <v>173</v>
@@ -8501,13 +8541,13 @@
         <v>52</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>330</v>
+        <v>67</v>
       </c>
       <c r="G124" s="13">
-        <v>76073807</v>
+        <v>76091036</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I124" s="12" t="s">
         <v>43</v>
@@ -8518,14 +8558,14 @@
       <c r="K124" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L124" s="37" t="s">
-        <v>332</v>
+      <c r="L124" s="13" t="s">
+        <v>334</v>
       </c>
       <c r="M124" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N124" s="38">
-        <v>13914295927</v>
+      <c r="N124" s="13">
+        <v>18358350429</v>
       </c>
       <c r="O124" s="12" t="s">
         <v>173</v>
@@ -8546,13 +8586,13 @@
         <v>52</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="G125" s="13">
-        <v>76091036</v>
+        <v>76081863</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I125" s="12" t="s">
         <v>43</v>
@@ -8564,13 +8604,13 @@
         <v>17721436606</v>
       </c>
       <c r="L125" s="13" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M125" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N125" s="13">
-        <v>18358350429</v>
+        <v>18994122660</v>
       </c>
       <c r="O125" s="12" t="s">
         <v>173</v>
@@ -8591,13 +8631,13 @@
         <v>52</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>96</v>
+        <v>299</v>
       </c>
       <c r="G126" s="13">
-        <v>76081863</v>
+        <v>76096281</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I126" s="12" t="s">
         <v>43</v>
@@ -8609,13 +8649,13 @@
         <v>17721436606</v>
       </c>
       <c r="L126" s="13" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M126" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N126" s="13">
-        <v>18994122660</v>
+        <v>15251045468</v>
       </c>
       <c r="O126" s="12" t="s">
         <v>173</v>
@@ -8636,13 +8676,13 @@
         <v>52</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="G127" s="13">
-        <v>76096281</v>
+        <v>76095195</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="I127" s="12" t="s">
         <v>43</v>
@@ -8654,13 +8694,13 @@
         <v>17721436606</v>
       </c>
       <c r="L127" s="13" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="M127" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N127" s="13">
-        <v>15251045468</v>
+        <v>13063963982</v>
       </c>
       <c r="O127" s="12" t="s">
         <v>173</v>
@@ -8681,13 +8721,13 @@
         <v>52</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>339</v>
+        <v>132</v>
       </c>
       <c r="G128" s="13">
-        <v>76095195</v>
+        <v>76101680</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I128" s="12" t="s">
         <v>43</v>
@@ -8699,13 +8739,13 @@
         <v>17721436606</v>
       </c>
       <c r="L128" s="13" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="M128" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N128" s="13">
-        <v>13063963982</v>
+        <v>15950910285</v>
       </c>
       <c r="O128" s="12" t="s">
         <v>173</v>
@@ -8726,13 +8766,13 @@
         <v>52</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="G129" s="13">
-        <v>76101680</v>
+        <v>76100735</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I129" s="12" t="s">
         <v>43</v>
@@ -8744,13 +8784,13 @@
         <v>17721436606</v>
       </c>
       <c r="L129" s="13" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M129" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N129" s="13">
-        <v>15950910285</v>
+        <v>13706123603</v>
       </c>
       <c r="O129" s="12" t="s">
         <v>173</v>
@@ -8771,13 +8811,13 @@
         <v>52</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="G130" s="13">
-        <v>76100735</v>
+        <v>76100711</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I130" s="12" t="s">
         <v>43</v>
@@ -8789,13 +8829,13 @@
         <v>17721436606</v>
       </c>
       <c r="L130" s="13" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M130" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N130" s="13">
-        <v>13706123603</v>
+        <v>15214368904</v>
       </c>
       <c r="O130" s="12" t="s">
         <v>173</v>
@@ -8816,13 +8856,13 @@
         <v>52</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>43</v>
+        <v>347</v>
       </c>
       <c r="G131" s="13">
-        <v>76100711</v>
+        <v>76092139</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="I131" s="12" t="s">
         <v>43</v>
@@ -8834,13 +8874,13 @@
         <v>17721436606</v>
       </c>
       <c r="L131" s="13" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M131" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N131" s="13">
-        <v>15214368904</v>
+        <v>13818847991</v>
       </c>
       <c r="O131" s="12" t="s">
         <v>173</v>
@@ -8861,13 +8901,13 @@
         <v>52</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G132" s="13">
-        <v>76092139</v>
+        <v>76081822</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I132" s="12" t="s">
         <v>43</v>
@@ -8879,13 +8919,13 @@
         <v>17721436606</v>
       </c>
       <c r="L132" s="13" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M132" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N132" s="13">
-        <v>13818847991</v>
+        <v>17384600589</v>
       </c>
       <c r="O132" s="12" t="s">
         <v>173</v>
@@ -8906,13 +8946,13 @@
         <v>52</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="G133" s="13">
-        <v>76081822</v>
+        <v>76095897</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I133" s="12" t="s">
         <v>43</v>
@@ -8924,13 +8964,13 @@
         <v>17721436606</v>
       </c>
       <c r="L133" s="13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M133" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N133" s="13">
-        <v>17384600589</v>
+        <v>13817611168</v>
       </c>
       <c r="O133" s="12" t="s">
         <v>173</v>
@@ -8951,13 +8991,13 @@
         <v>52</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G134" s="13">
-        <v>76095897</v>
+        <v>76092652</v>
       </c>
       <c r="H134" s="13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I134" s="12" t="s">
         <v>43</v>
@@ -8969,13 +9009,13 @@
         <v>17721436606</v>
       </c>
       <c r="L134" s="13" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M134" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N134" s="13">
-        <v>13817611168</v>
+        <v>13951017550</v>
       </c>
       <c r="O134" s="12" t="s">
         <v>173</v>
@@ -8996,13 +9036,13 @@
         <v>52</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G135" s="13">
-        <v>76092652</v>
+        <v>76098159</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I135" s="12" t="s">
         <v>43</v>
@@ -9014,13 +9054,13 @@
         <v>17721436606</v>
       </c>
       <c r="L135" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M135" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N135" s="13">
-        <v>13951017550</v>
+        <v>13637277756</v>
       </c>
       <c r="O135" s="12" t="s">
         <v>173</v>
@@ -9044,10 +9084,10 @@
         <v>76</v>
       </c>
       <c r="G136" s="13">
-        <v>76098159</v>
+        <v>76081952</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="I136" s="12" t="s">
         <v>43</v>
@@ -9059,13 +9099,13 @@
         <v>17721436606</v>
       </c>
       <c r="L136" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M136" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N136" s="13">
-        <v>13637277756</v>
+        <v>13956267302</v>
       </c>
       <c r="O136" s="12" t="s">
         <v>173</v>
@@ -9086,13 +9126,13 @@
         <v>52</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="G137" s="13">
-        <v>76081952</v>
+        <v>76081955</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="I137" s="12" t="s">
         <v>43</v>
@@ -9104,13 +9144,13 @@
         <v>17721436606</v>
       </c>
       <c r="L137" s="13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M137" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N137" s="13">
-        <v>13956267302</v>
+        <v>15121058158</v>
       </c>
       <c r="O137" s="12" t="s">
         <v>173</v>
@@ -9131,13 +9171,13 @@
         <v>52</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="G138" s="13">
-        <v>76081955</v>
+        <v>76098850</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I138" s="12" t="s">
         <v>43</v>
@@ -9149,13 +9189,13 @@
         <v>17721436606</v>
       </c>
       <c r="L138" s="13" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M138" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N138" s="13">
-        <v>15121058158</v>
+        <v>13918487556</v>
       </c>
       <c r="O138" s="12" t="s">
         <v>173</v>
@@ -9169,20 +9209,20 @@
       <c r="C139" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D139" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F139" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G139" s="13">
-        <v>76098850</v>
-      </c>
-      <c r="H139" s="13" t="s">
-        <v>362</v>
+      <c r="D139" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G139" s="6">
+        <v>76101237</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>365</v>
       </c>
       <c r="I139" s="12" t="s">
         <v>43</v>
@@ -9193,14 +9233,14 @@
       <c r="K139" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L139" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="M139" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="N139" s="13">
-        <v>13918487556</v>
+      <c r="L139" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N139" s="26" t="s">
+        <v>367</v>
       </c>
       <c r="O139" s="12" t="s">
         <v>173</v>
@@ -9215,19 +9255,19 @@
         <v>40</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>47</v>
+        <v>368</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G140" s="6">
-        <v>76101237</v>
+        <v>76098583</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="I140" s="12" t="s">
         <v>43</v>
@@ -9239,16 +9279,16 @@
         <v>17721436606</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M140" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N140" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="O140" s="12" t="s">
-        <v>173</v>
+        <v>371</v>
+      </c>
+      <c r="N140" s="26">
+        <v>13859010255</v>
+      </c>
+      <c r="O140" s="6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="1:15">
@@ -9263,16 +9303,16 @@
         <v>243</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>369</v>
       </c>
       <c r="G141" s="6">
-        <v>76098583</v>
+        <v>76098585</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="I141" s="12" t="s">
         <v>43</v>
@@ -9308,16 +9348,16 @@
         <v>243</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>369</v>
       </c>
       <c r="G142" s="6">
-        <v>76098585</v>
+        <v>76098586</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I142" s="12" t="s">
         <v>43</v>
@@ -9353,16 +9393,16 @@
         <v>243</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>369</v>
       </c>
       <c r="G143" s="6">
-        <v>76098586</v>
+        <v>76098588</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I143" s="12" t="s">
         <v>43</v>
@@ -9374,13 +9414,13 @@
         <v>17721436606</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M143" s="6" t="s">
-        <v>371</v>
+        <v>51</v>
       </c>
       <c r="N143" s="26">
-        <v>13859010255</v>
+        <v>13160801863</v>
       </c>
       <c r="O143" s="6" t="s">
         <v>170</v>
@@ -9398,16 +9438,16 @@
         <v>243</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>369</v>
       </c>
       <c r="G144" s="6">
-        <v>76098588</v>
+        <v>76098589</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="I144" s="12" t="s">
         <v>43</v>
@@ -9443,16 +9483,16 @@
         <v>243</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>376</v>
+        <v>244</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>369</v>
       </c>
       <c r="G145" s="6">
-        <v>76098589</v>
+        <v>76098590</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I145" s="12" t="s">
         <v>43</v>
@@ -9478,52 +9518,12 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="18"/>
-      <c r="B146" s="32">
-        <v>43026</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="G146" s="6">
-        <v>76098590</v>
-      </c>
-      <c r="H146" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="I146" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J146" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K146" s="12">
-        <v>17721436606</v>
-      </c>
-      <c r="L146" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="M146" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N146" s="26">
-        <v>13160801863</v>
-      </c>
-      <c r="O146" s="6" t="s">
-        <v>170</v>
-      </c>
+      <c r="B146" s="32"/>
+      <c r="N146" s="26"/>
+      <c r="O146" s="6"/>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="18"/>
-      <c r="B147" s="32"/>
       <c r="N147" s="26"/>
       <c r="O147" s="6"/>
     </row>
@@ -10437,10 +10437,8 @@
       <c r="N329" s="26"/>
       <c r="O329" s="6"/>
     </row>
-    <row r="330" spans="1:15">
+    <row r="330" spans="1:1">
       <c r="A330" s="18"/>
-      <c r="N330" s="26"/>
-      <c r="O330" s="6"/>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="18"/>
@@ -11258,15 +11256,12 @@
     <row r="602" spans="1:1">
       <c r="A602" s="18"/>
     </row>
-    <row r="603" spans="1:1">
-      <c r="A603" s="18"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B118 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B119:B138 B139:B147 B148:B1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C118 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C119:C138 C139:C146 C147:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C146:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>

--- a/别伟超/实施周数据-张磊组-别伟超.xlsx
+++ b/别伟超/实施周数据-张磊组-别伟超.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -970,6 +970,189 @@
   </si>
   <si>
     <t>黄金金</t>
+  </si>
+  <si>
+    <t>悸动(百兴商贸城店)</t>
+  </si>
+  <si>
+    <t>王志洪</t>
+  </si>
+  <si>
+    <t>临沂</t>
+  </si>
+  <si>
+    <t>悸动(临沂苍山宝庆生活广场店)</t>
+  </si>
+  <si>
+    <t>薛东青</t>
+  </si>
+  <si>
+    <t>悸动(杭州江干华润万家店)</t>
+  </si>
+  <si>
+    <t>吴琪岗</t>
+  </si>
+  <si>
+    <t>南昌</t>
+  </si>
+  <si>
+    <t>悸动(江西服装学院店)</t>
+  </si>
+  <si>
+    <t>倪华俊</t>
+  </si>
+  <si>
+    <t>宿迁</t>
+  </si>
+  <si>
+    <t>悸动(宿迁沭阳城市广场店)</t>
+  </si>
+  <si>
+    <t>贾盈盈</t>
+  </si>
+  <si>
+    <t>宜兴</t>
+  </si>
+  <si>
+    <t>悸动(宜兴凌霞北路店)</t>
+  </si>
+  <si>
+    <t>张颖</t>
+  </si>
+  <si>
+    <t>悸动(嘉兴西塘店)</t>
+  </si>
+  <si>
+    <t>罗华中</t>
+  </si>
+  <si>
+    <t>悸动(南京月桥路店)</t>
+  </si>
+  <si>
+    <t>张华</t>
+  </si>
+  <si>
+    <t>悸动(盐城金地商业中心店)</t>
+  </si>
+  <si>
+    <t>顾静</t>
+  </si>
+  <si>
+    <t>福建</t>
+  </si>
+  <si>
+    <t>悸动(邵武五四路店)</t>
+  </si>
+  <si>
+    <t>悸动(昆山童泾路店)</t>
+  </si>
+  <si>
+    <t>袁玲玲</t>
+  </si>
+  <si>
+    <t>悸动(常州兴镇路店)</t>
+  </si>
+  <si>
+    <t>余洋</t>
+  </si>
+  <si>
+    <t>悸动(青浦青湖路店)</t>
+  </si>
+  <si>
+    <t>刘诗羽</t>
+  </si>
+  <si>
+    <t>常德</t>
+  </si>
+  <si>
+    <t>悸动(常德人民路店)</t>
+  </si>
+  <si>
+    <t>刘冠男</t>
+  </si>
+  <si>
+    <t>海南</t>
+  </si>
+  <si>
+    <t>悸动(海口经济学院店)</t>
+  </si>
+  <si>
+    <t>吴健</t>
+  </si>
+  <si>
+    <t>悸动(马鞍山朝辉花园店)</t>
+  </si>
+  <si>
+    <t>汪和才</t>
+  </si>
+  <si>
+    <t>悸动(南京玉兰路店)</t>
+  </si>
+  <si>
+    <t>卞元金</t>
+  </si>
+  <si>
+    <t>悸动(六安飞霞路店)</t>
+  </si>
+  <si>
+    <t>徐云</t>
+  </si>
+  <si>
+    <t>陈克爽</t>
+  </si>
+  <si>
+    <t>悸动(宜兴凤凰街店)</t>
+  </si>
+  <si>
+    <t>钱敏</t>
+  </si>
+  <si>
+    <t>悸动(马鞍山和县历阳中路店)</t>
+  </si>
+  <si>
+    <t>金国平</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>捞王锅物料理(宁波宏泰店)</t>
+  </si>
+  <si>
+    <t>廖店长</t>
+  </si>
+  <si>
+    <t>0574-81879950</t>
+  </si>
+  <si>
+    <t>RAMENGOSSOU</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>陈君</t>
+  </si>
+  <si>
+    <t>经理</t>
+  </si>
+  <si>
+    <t>串兵衛日式串焼き、串揚げ</t>
+  </si>
+  <si>
+    <t>大贯日式牛扒</t>
+  </si>
+  <si>
+    <t>麺処勲</t>
+  </si>
+  <si>
+    <t>张店长</t>
+  </si>
+  <si>
+    <t>头盔一鰻三吃</t>
+  </si>
+  <si>
+    <t>春树拉面(广州店)</t>
   </si>
   <si>
     <t>姓名</t>
@@ -995,13 +1178,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,51 +1247,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1121,58 +1259,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,14 +1284,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1211,7 +1299,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1220,6 +1383,19 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1287,7 +1463,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,13 +1517,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,49 +1553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1371,13 +1565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,13 +1589,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,43 +1613,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,21 +1965,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1815,39 +1976,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1876,6 +2004,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1886,16 +2029,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1904,149 +2080,149 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2143,14 +2319,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2370,6 +2552,11 @@
     <cellStyle name="常规 15" xfId="54"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2625,12 +2812,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
@@ -2649,440 +2835,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="74" t="s">
+      <c r="N2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="39"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49">
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50">
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="77" t="e">
+      <c r="J3" s="78"/>
+      <c r="K3" s="79" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="80">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="79">
+      <c r="M3" s="81">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="80" t="e">
+      <c r="N3" s="82" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55">
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="56">
+      <c r="G4" s="58"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="77" t="e">
+      <c r="J4" s="83"/>
+      <c r="K4" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="78">
+      <c r="L4" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="79">
+      <c r="M4" s="81">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="80" t="e">
+      <c r="N4" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55">
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="56">
+      <c r="G5" s="58"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="77" t="e">
+      <c r="J5" s="83"/>
+      <c r="K5" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="78">
+      <c r="L5" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="79">
+      <c r="M5" s="81">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="80" t="e">
+      <c r="N5" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55">
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="56">
+      <c r="G6" s="58"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="77" t="e">
+      <c r="J6" s="83"/>
+      <c r="K6" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="78">
+      <c r="L6" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="79">
+      <c r="M6" s="81">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="80" t="e">
+      <c r="N6" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55">
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="56">
+      <c r="G7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="77" t="e">
+      <c r="J7" s="83"/>
+      <c r="K7" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="78">
+      <c r="L7" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="79">
+      <c r="M7" s="81">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="80" t="e">
+      <c r="N7" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55">
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="56">
+      <c r="G8" s="58"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="77" t="e">
+      <c r="J8" s="83"/>
+      <c r="K8" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="78">
+      <c r="L8" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="79">
+      <c r="M8" s="81">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="80" t="e">
+      <c r="N8" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55">
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="56">
+      <c r="G9" s="58"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="77" t="e">
+      <c r="J9" s="83"/>
+      <c r="K9" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="78">
+      <c r="L9" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="79">
+      <c r="M9" s="81">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="80" t="e">
+      <c r="N9" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="57" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60">
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="61">
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="82"/>
-      <c r="K10" s="83" t="e">
+      <c r="J10" s="84"/>
+      <c r="K10" s="85" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="84">
+      <c r="L10" s="86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="85">
+      <c r="M10" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="86" t="e">
+      <c r="N10" s="88" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="68">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="68">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="68">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="68">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="68">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="87" t="e">
+      <c r="K11" s="89" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="67">
+      <c r="L11" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="67">
+      <c r="M11" s="69">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="88" t="e">
+      <c r="N11" s="90" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3096,14 +3282,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M104" sqref="M104:M116"/>
+      <selection pane="bottomLeft" activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6320,13 +6506,13 @@
       <c r="K76" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L76" s="35" t="s">
+      <c r="L76" s="34" t="s">
         <v>226</v>
       </c>
       <c r="M76" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N76" s="35">
+      <c r="N76" s="34">
         <v>18502567464</v>
       </c>
       <c r="O76" s="12" t="s">
@@ -7101,7 +7287,7 @@
       <c r="M95" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N95" s="89" t="s">
+      <c r="N95" s="91" t="s">
         <v>269</v>
       </c>
       <c r="O95" s="12" t="s">
@@ -7560,53 +7746,25 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="18"/>
-      <c r="B106" s="32">
-        <v>43008</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F106" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="G106" s="34">
-        <v>76098216</v>
-      </c>
-      <c r="H106" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="I106" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J106" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K106" s="12">
-        <v>17721436606</v>
-      </c>
-      <c r="L106" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="M106" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="N106" s="34">
-        <v>13651600757</v>
-      </c>
-      <c r="O106" s="12" t="s">
-        <v>173</v>
-      </c>
+      <c r="B106" s="32"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="13"/>
+      <c r="O106" s="12"/>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="18"/>
       <c r="B107" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>40</v>
@@ -7617,14 +7775,14 @@
       <c r="E107" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F107" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="G107" s="34">
-        <v>76099177</v>
-      </c>
-      <c r="H107" s="34" t="s">
-        <v>294</v>
+      <c r="F107" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="G107" s="13">
+        <v>76098216</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>292</v>
       </c>
       <c r="I107" s="12" t="s">
         <v>43</v>
@@ -7635,14 +7793,14 @@
       <c r="K107" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L107" s="34" t="s">
-        <v>295</v>
+      <c r="L107" s="13" t="s">
+        <v>293</v>
       </c>
       <c r="M107" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N107" s="34">
-        <v>13063963982</v>
+      <c r="N107" s="13">
+        <v>13651600757</v>
       </c>
       <c r="O107" s="12" t="s">
         <v>173</v>
@@ -7651,7 +7809,7 @@
     <row r="108" spans="1:15">
       <c r="A108" s="18"/>
       <c r="B108" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>40</v>
@@ -7662,14 +7820,14 @@
       <c r="E108" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F108" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="G108" s="34">
-        <v>76081817</v>
-      </c>
-      <c r="H108" s="34" t="s">
-        <v>297</v>
+      <c r="F108" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G108" s="13">
+        <v>76099177</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>294</v>
       </c>
       <c r="I108" s="12" t="s">
         <v>43</v>
@@ -7680,14 +7838,14 @@
       <c r="K108" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L108" s="34" t="s">
-        <v>298</v>
+      <c r="L108" s="13" t="s">
+        <v>295</v>
       </c>
       <c r="M108" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N108" s="34">
-        <v>15028311353</v>
+      <c r="N108" s="13">
+        <v>13063963982</v>
       </c>
       <c r="O108" s="12" t="s">
         <v>173</v>
@@ -7696,7 +7854,7 @@
     <row r="109" spans="1:15">
       <c r="A109" s="18"/>
       <c r="B109" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>40</v>
@@ -7707,14 +7865,14 @@
       <c r="E109" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F109" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="G109" s="34">
-        <v>76086302</v>
-      </c>
-      <c r="H109" s="34" t="s">
-        <v>300</v>
+      <c r="F109" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="G109" s="13">
+        <v>76081817</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>297</v>
       </c>
       <c r="I109" s="12" t="s">
         <v>43</v>
@@ -7725,14 +7883,14 @@
       <c r="K109" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L109" s="34" t="s">
-        <v>301</v>
+      <c r="L109" s="13" t="s">
+        <v>298</v>
       </c>
       <c r="M109" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N109" s="34">
-        <v>18912580233</v>
+      <c r="N109" s="13">
+        <v>15028311353</v>
       </c>
       <c r="O109" s="12" t="s">
         <v>173</v>
@@ -7741,7 +7899,7 @@
     <row r="110" spans="1:15">
       <c r="A110" s="18"/>
       <c r="B110" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C110" s="12" t="s">
         <v>40</v>
@@ -7752,14 +7910,14 @@
       <c r="E110" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F110" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G110" s="34">
-        <v>76081952</v>
-      </c>
-      <c r="H110" s="34" t="s">
-        <v>302</v>
+      <c r="F110" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="G110" s="13">
+        <v>76086302</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>300</v>
       </c>
       <c r="I110" s="12" t="s">
         <v>43</v>
@@ -7770,14 +7928,14 @@
       <c r="K110" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L110" s="34" t="s">
-        <v>303</v>
+      <c r="L110" s="13" t="s">
+        <v>301</v>
       </c>
       <c r="M110" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N110" s="34">
-        <v>13956267302</v>
+      <c r="N110" s="13">
+        <v>18912580233</v>
       </c>
       <c r="O110" s="12" t="s">
         <v>173</v>
@@ -7786,7 +7944,7 @@
     <row r="111" spans="1:15">
       <c r="A111" s="18"/>
       <c r="B111" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>40</v>
@@ -7797,14 +7955,14 @@
       <c r="E111" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F111" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="G111" s="34">
-        <v>76081887</v>
-      </c>
-      <c r="H111" s="34" t="s">
-        <v>304</v>
+      <c r="F111" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G111" s="13">
+        <v>76081952</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>302</v>
       </c>
       <c r="I111" s="12" t="s">
         <v>43</v>
@@ -7815,14 +7973,14 @@
       <c r="K111" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L111" s="34" t="s">
-        <v>305</v>
+      <c r="L111" s="13" t="s">
+        <v>303</v>
       </c>
       <c r="M111" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N111" s="34">
-        <v>18914973930</v>
+      <c r="N111" s="13">
+        <v>13956267302</v>
       </c>
       <c r="O111" s="12" t="s">
         <v>173</v>
@@ -7831,7 +7989,7 @@
     <row r="112" spans="1:15">
       <c r="A112" s="18"/>
       <c r="B112" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>40</v>
@@ -7842,14 +8000,14 @@
       <c r="E112" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F112" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G112" s="34">
-        <v>76099251</v>
-      </c>
-      <c r="H112" s="34" t="s">
-        <v>306</v>
+      <c r="F112" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G112" s="13">
+        <v>76081887</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>304</v>
       </c>
       <c r="I112" s="12" t="s">
         <v>43</v>
@@ -7860,14 +8018,14 @@
       <c r="K112" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L112" s="34" t="s">
-        <v>307</v>
+      <c r="L112" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="M112" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N112" s="34">
-        <v>13505731962</v>
+      <c r="N112" s="13">
+        <v>18914973930</v>
       </c>
       <c r="O112" s="12" t="s">
         <v>173</v>
@@ -7876,7 +8034,7 @@
     <row r="113" spans="1:15">
       <c r="A113" s="18"/>
       <c r="B113" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>40</v>
@@ -7887,14 +8045,14 @@
       <c r="E113" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F113" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="G113" s="34">
-        <v>76099177</v>
-      </c>
-      <c r="H113" s="34" t="s">
-        <v>308</v>
+      <c r="F113" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G113" s="13">
+        <v>76099251</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="I113" s="12" t="s">
         <v>43</v>
@@ -7905,14 +8063,14 @@
       <c r="K113" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L113" s="34" t="s">
-        <v>295</v>
+      <c r="L113" s="13" t="s">
+        <v>307</v>
       </c>
       <c r="M113" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N113" s="34">
-        <v>13063963982</v>
+      <c r="N113" s="13">
+        <v>13505731962</v>
       </c>
       <c r="O113" s="12" t="s">
         <v>173</v>
@@ -7921,7 +8079,7 @@
     <row r="114" spans="1:15">
       <c r="A114" s="18"/>
       <c r="B114" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>40</v>
@@ -7932,14 +8090,14 @@
       <c r="E114" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F114" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="G114" s="34">
-        <v>76099287</v>
-      </c>
-      <c r="H114" s="34" t="s">
-        <v>310</v>
+      <c r="F114" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G114" s="13">
+        <v>76099177</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="I114" s="12" t="s">
         <v>43</v>
@@ -7950,14 +8108,14 @@
       <c r="K114" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L114" s="34" t="s">
-        <v>311</v>
+      <c r="L114" s="13" t="s">
+        <v>295</v>
       </c>
       <c r="M114" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N114" s="34">
-        <v>18305053621</v>
+      <c r="N114" s="13">
+        <v>13063963982</v>
       </c>
       <c r="O114" s="12" t="s">
         <v>173</v>
@@ -7966,7 +8124,7 @@
     <row r="115" spans="1:15">
       <c r="A115" s="18"/>
       <c r="B115" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>40</v>
@@ -7977,14 +8135,14 @@
       <c r="E115" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F115" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G115" s="34">
-        <v>76099303</v>
-      </c>
-      <c r="H115" s="34" t="s">
-        <v>312</v>
+      <c r="F115" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="G115" s="13">
+        <v>76099287</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="I115" s="12" t="s">
         <v>43</v>
@@ -7995,14 +8153,14 @@
       <c r="K115" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L115" s="34" t="s">
-        <v>313</v>
+      <c r="L115" s="13" t="s">
+        <v>311</v>
       </c>
       <c r="M115" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N115" s="34">
-        <v>13813828360</v>
+      <c r="N115" s="13">
+        <v>18305053621</v>
       </c>
       <c r="O115" s="12" t="s">
         <v>173</v>
@@ -8011,7 +8169,7 @@
     <row r="116" spans="1:15">
       <c r="A116" s="18"/>
       <c r="B116" s="32">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>40</v>
@@ -8022,14 +8180,14 @@
       <c r="E116" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F116" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="G116" s="34">
-        <v>76099331</v>
-      </c>
-      <c r="H116" s="34" t="s">
-        <v>315</v>
+      <c r="F116" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G116" s="13">
+        <v>76099303</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="I116" s="12" t="s">
         <v>43</v>
@@ -8040,14 +8198,14 @@
       <c r="K116" s="12">
         <v>17721436606</v>
       </c>
-      <c r="L116" s="34" t="s">
-        <v>316</v>
+      <c r="L116" s="13" t="s">
+        <v>313</v>
       </c>
       <c r="M116" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N116" s="34">
-        <v>13989337698</v>
+      <c r="N116" s="13">
+        <v>13813828360</v>
       </c>
       <c r="O116" s="12" t="s">
         <v>173</v>
@@ -8055,151 +8213,1312 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="18"/>
-      <c r="N117" s="26"/>
-      <c r="O117" s="6"/>
+      <c r="B117" s="32">
+        <v>43009</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G117" s="13">
+        <v>76099331</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J117" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K117" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L117" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="M117" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N117" s="13">
+        <v>13989337698</v>
+      </c>
+      <c r="O117" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="18"/>
-      <c r="N118" s="26"/>
-      <c r="O118" s="6"/>
+      <c r="B118" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G118" s="13">
+        <v>76099533</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="I118" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J118" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K118" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L118" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="M118" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N118" s="13">
+        <v>13915803903</v>
+      </c>
+      <c r="O118" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="18"/>
-      <c r="N119" s="26"/>
-      <c r="O119" s="6"/>
+      <c r="B119" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="G119" s="13">
+        <v>76099993</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J119" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K119" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L119" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="M119" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N119" s="13">
+        <v>18151835354</v>
+      </c>
+      <c r="O119" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="18"/>
-      <c r="N120" s="26"/>
-      <c r="O120" s="6"/>
+      <c r="B120" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G120" s="13">
+        <v>76099120</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="I120" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J120" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K120" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L120" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="M120" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N120" s="13">
+        <v>13957398098</v>
+      </c>
+      <c r="O120" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="18"/>
-      <c r="N121" s="26"/>
-      <c r="O121" s="6"/>
+      <c r="B121" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="G121" s="13">
+        <v>76095913</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J121" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K121" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L121" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="M121" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N121" s="13">
+        <v>18961469596</v>
+      </c>
+      <c r="O121" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="18"/>
-      <c r="N122" s="26"/>
-      <c r="O122" s="6"/>
+      <c r="B122" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="G122" s="13">
+        <v>76100015</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="I122" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J122" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K122" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L122" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="M122" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N122" s="13">
+        <v>15151111620</v>
+      </c>
+      <c r="O122" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="18"/>
-      <c r="N123" s="26"/>
-      <c r="O123" s="6"/>
+      <c r="B123" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G123" s="13">
+        <v>76073807</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J123" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K123" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L123" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="M123" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N123" s="38">
+        <v>13914295927</v>
+      </c>
+      <c r="O123" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="18"/>
-      <c r="N124" s="26"/>
-      <c r="O124" s="6"/>
+      <c r="B124" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G124" s="13">
+        <v>76091036</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="I124" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J124" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K124" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L124" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="M124" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N124" s="13">
+        <v>18358350429</v>
+      </c>
+      <c r="O124" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="18"/>
-      <c r="N125" s="26"/>
-      <c r="O125" s="6"/>
+      <c r="B125" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G125" s="13">
+        <v>76081863</v>
+      </c>
+      <c r="H125" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J125" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K125" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L125" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="M125" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N125" s="13">
+        <v>18994122660</v>
+      </c>
+      <c r="O125" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="18"/>
-      <c r="N126" s="26"/>
-      <c r="O126" s="6"/>
+      <c r="B126" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="G126" s="13">
+        <v>76096281</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="I126" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J126" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K126" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L126" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="M126" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N126" s="13">
+        <v>15251045468</v>
+      </c>
+      <c r="O126" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="18"/>
-      <c r="N127" s="26"/>
-      <c r="O127" s="6"/>
+      <c r="B127" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="G127" s="13">
+        <v>76095195</v>
+      </c>
+      <c r="H127" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J127" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K127" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L127" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="M127" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N127" s="13">
+        <v>13063963982</v>
+      </c>
+      <c r="O127" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="18"/>
-      <c r="N128" s="26"/>
-      <c r="O128" s="6"/>
+      <c r="B128" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G128" s="13">
+        <v>76101680</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J128" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K128" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L128" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="M128" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N128" s="13">
+        <v>15950910285</v>
+      </c>
+      <c r="O128" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="18"/>
-      <c r="N129" s="26"/>
-      <c r="O129" s="6"/>
+      <c r="B129" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G129" s="13">
+        <v>76100735</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J129" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K129" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L129" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="M129" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N129" s="13">
+        <v>13706123603</v>
+      </c>
+      <c r="O129" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="18"/>
-      <c r="N130" s="26"/>
-      <c r="O130" s="6"/>
+      <c r="B130" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130" s="13">
+        <v>76100711</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="I130" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J130" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K130" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L130" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="M130" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N130" s="13">
+        <v>15214368904</v>
+      </c>
+      <c r="O130" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="18"/>
-      <c r="N131" s="26"/>
-      <c r="O131" s="6"/>
+      <c r="B131" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="G131" s="13">
+        <v>76092139</v>
+      </c>
+      <c r="H131" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J131" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K131" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L131" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="M131" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N131" s="13">
+        <v>13818847991</v>
+      </c>
+      <c r="O131" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="18"/>
-      <c r="N132" s="26"/>
-      <c r="O132" s="6"/>
+      <c r="B132" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="G132" s="13">
+        <v>76081822</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I132" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J132" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K132" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L132" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="M132" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N132" s="13">
+        <v>17384600589</v>
+      </c>
+      <c r="O132" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="18"/>
-      <c r="N133" s="26"/>
-      <c r="O133" s="6"/>
+      <c r="B133" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G133" s="13">
+        <v>76095897</v>
+      </c>
+      <c r="H133" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J133" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K133" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L133" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="M133" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N133" s="13">
+        <v>13817611168</v>
+      </c>
+      <c r="O133" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="18"/>
-      <c r="N134" s="26"/>
-      <c r="O134" s="6"/>
+      <c r="B134" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G134" s="13">
+        <v>76092652</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="I134" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J134" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K134" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L134" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="M134" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N134" s="13">
+        <v>13951017550</v>
+      </c>
+      <c r="O134" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="18"/>
-      <c r="N135" s="26"/>
-      <c r="O135" s="6"/>
+      <c r="B135" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G135" s="13">
+        <v>76098159</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J135" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K135" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L135" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="M135" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N135" s="13">
+        <v>13637277756</v>
+      </c>
+      <c r="O135" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="18"/>
-      <c r="N136" s="26"/>
-      <c r="O136" s="6"/>
+      <c r="B136" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G136" s="13">
+        <v>76081952</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="I136" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J136" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K136" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L136" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="M136" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N136" s="13">
+        <v>13956267302</v>
+      </c>
+      <c r="O136" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="18"/>
-      <c r="N137" s="26"/>
-      <c r="O137" s="6"/>
+      <c r="B137" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G137" s="13">
+        <v>76081955</v>
+      </c>
+      <c r="H137" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J137" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K137" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L137" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="M137" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N137" s="13">
+        <v>15121058158</v>
+      </c>
+      <c r="O137" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="18"/>
-      <c r="N138" s="26"/>
-      <c r="O138" s="6"/>
+      <c r="B138" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G138" s="13">
+        <v>76098850</v>
+      </c>
+      <c r="H138" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="I138" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J138" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K138" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L138" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="M138" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N138" s="13">
+        <v>13918487556</v>
+      </c>
+      <c r="O138" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="18"/>
-      <c r="N139" s="26"/>
-      <c r="O139" s="6"/>
+      <c r="B139" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G139" s="6">
+        <v>76101237</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="I139" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J139" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K139" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N139" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="O139" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="18"/>
-      <c r="N140" s="26"/>
-      <c r="O140" s="6"/>
+      <c r="B140" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G140" s="6">
+        <v>76098583</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="I140" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J140" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K140" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="M140" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="N140" s="26">
+        <v>13859010255</v>
+      </c>
+      <c r="O140" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="18"/>
-      <c r="N141" s="26"/>
-      <c r="O141" s="6"/>
+      <c r="B141" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G141" s="6">
+        <v>76098585</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J141" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K141" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L141" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="M141" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="N141" s="26">
+        <v>13859010255</v>
+      </c>
+      <c r="O141" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="18"/>
-      <c r="N142" s="26"/>
-      <c r="O142" s="6"/>
+      <c r="B142" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G142" s="6">
+        <v>76098586</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I142" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J142" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K142" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="M142" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="N142" s="26">
+        <v>13859010255</v>
+      </c>
+      <c r="O142" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="18"/>
-      <c r="N143" s="26"/>
-      <c r="O143" s="6"/>
+      <c r="B143" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G143" s="6">
+        <v>76098588</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J143" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K143" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="M143" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N143" s="26">
+        <v>13160801863</v>
+      </c>
+      <c r="O143" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="18"/>
-      <c r="N144" s="26"/>
-      <c r="O144" s="6"/>
+      <c r="B144" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G144" s="6">
+        <v>76098589</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="I144" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J144" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K144" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L144" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="M144" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N144" s="26">
+        <v>13160801863</v>
+      </c>
+      <c r="O144" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="18"/>
-      <c r="N145" s="26"/>
-      <c r="O145" s="6"/>
+      <c r="B145" s="32">
+        <v>43026</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G145" s="6">
+        <v>76098590</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J145" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K145" s="12">
+        <v>17721436606</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="M145" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N145" s="26">
+        <v>13160801863</v>
+      </c>
+      <c r="O145" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="18"/>
+      <c r="B146" s="32"/>
       <c r="N146" s="26"/>
       <c r="O146" s="6"/>
     </row>
@@ -9939,11 +11258,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C106:C116 C117:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B1048576">
+      <formula1>42736</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C146:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B106:B116 B117:B1048576">
-      <formula1>42736</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9953,7 +11272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -9970,13 +11289,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -9987,7 +11306,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9998,7 +11317,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10009,7 +11328,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:3">
